--- a/output_plus.xlsx
+++ b/output_plus.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G919"/>
+  <dimension ref="A1:G1117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22668,6 +22668,5280 @@
         <v>25746574</v>
       </c>
     </row>
+    <row r="920">
+      <c r="A920" t="inlineStr"/>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C920" t="n">
+        <v>159.94</v>
+      </c>
+      <c r="D920" t="n">
+        <v>160.77</v>
+      </c>
+      <c r="E920" t="n">
+        <v>157.87</v>
+      </c>
+      <c r="F920" t="n">
+        <v>158.28</v>
+      </c>
+      <c r="G920" t="n">
+        <v>52390266</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr"/>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C921" t="n">
+        <v>157.97</v>
+      </c>
+      <c r="D921" t="n">
+        <v>158.49</v>
+      </c>
+      <c r="E921" t="n">
+        <v>155.98</v>
+      </c>
+      <c r="F921" t="n">
+        <v>157.65</v>
+      </c>
+      <c r="G921" t="n">
+        <v>45992152</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr"/>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C922" t="n">
+        <v>159.37</v>
+      </c>
+      <c r="D922" t="n">
+        <v>161.05</v>
+      </c>
+      <c r="E922" t="n">
+        <v>159.35</v>
+      </c>
+      <c r="F922" t="n">
+        <v>160.77</v>
+      </c>
+      <c r="G922" t="n">
+        <v>51305691</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr"/>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C923" t="n">
+        <v>161.53</v>
+      </c>
+      <c r="D923" t="n">
+        <v>162.47</v>
+      </c>
+      <c r="E923" t="n">
+        <v>161.271</v>
+      </c>
+      <c r="F923" t="n">
+        <v>162.36</v>
+      </c>
+      <c r="G923" t="n">
+        <v>49501689</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr"/>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C924" t="n">
+        <v>162.44</v>
+      </c>
+      <c r="D924" t="n">
+        <v>165</v>
+      </c>
+      <c r="E924" t="n">
+        <v>161.91</v>
+      </c>
+      <c r="F924" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="G924" t="n">
+        <v>68749792</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr"/>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C925" t="n">
+        <v>164.27</v>
+      </c>
+      <c r="D925" t="n">
+        <v>166.29</v>
+      </c>
+      <c r="E925" t="n">
+        <v>164.22</v>
+      </c>
+      <c r="F925" t="n">
+        <v>166.17</v>
+      </c>
+      <c r="G925" t="n">
+        <v>56976187</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr"/>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C926" t="n">
+        <v>166.595</v>
+      </c>
+      <c r="D926" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="E926" t="n">
+        <v>165.11</v>
+      </c>
+      <c r="F926" t="n">
+        <v>165.63</v>
+      </c>
+      <c r="G926" t="n">
+        <v>46278295</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr"/>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C927" t="n">
+        <v>164.74</v>
+      </c>
+      <c r="D927" t="n">
+        <v>165.05</v>
+      </c>
+      <c r="E927" t="n">
+        <v>161.8</v>
+      </c>
+      <c r="F927" t="n">
+        <v>163.76</v>
+      </c>
+      <c r="G927" t="n">
+        <v>51511744</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr"/>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C928" t="n">
+        <v>162.43</v>
+      </c>
+      <c r="D928" t="n">
+        <v>164.9584</v>
+      </c>
+      <c r="E928" t="n">
+        <v>162</v>
+      </c>
+      <c r="F928" t="n">
+        <v>164.66</v>
+      </c>
+      <c r="G928" t="n">
+        <v>45390123</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr"/>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C929" t="n">
+        <v>161.42</v>
+      </c>
+      <c r="D929" t="n">
+        <v>162.03</v>
+      </c>
+      <c r="E929" t="n">
+        <v>160.08</v>
+      </c>
+      <c r="F929" t="n">
+        <v>162.03</v>
+      </c>
+      <c r="G929" t="n">
+        <v>47716882</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr"/>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C930" t="n">
+        <v>162.35</v>
+      </c>
+      <c r="D930" t="n">
+        <v>162.36</v>
+      </c>
+      <c r="E930" t="n">
+        <v>160.51</v>
+      </c>
+      <c r="F930" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="G930" t="n">
+        <v>47644217</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr"/>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C931" t="n">
+        <v>161.22</v>
+      </c>
+      <c r="D931" t="n">
+        <v>162.06</v>
+      </c>
+      <c r="E931" t="n">
+        <v>159.78</v>
+      </c>
+      <c r="F931" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="G931" t="n">
+        <v>50133062</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr"/>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C932" t="n">
+        <v>161.63</v>
+      </c>
+      <c r="D932" t="n">
+        <v>165.8</v>
+      </c>
+      <c r="E932" t="n">
+        <v>161.42</v>
+      </c>
+      <c r="F932" t="n">
+        <v>165.56</v>
+      </c>
+      <c r="G932" t="n">
+        <v>68445649</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr"/>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C933" t="n">
+        <v>164.59</v>
+      </c>
+      <c r="D933" t="n">
+        <v>166.32</v>
+      </c>
+      <c r="E933" t="n">
+        <v>163.82</v>
+      </c>
+      <c r="F933" t="n">
+        <v>165.21</v>
+      </c>
+      <c r="G933" t="n">
+        <v>49386480</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr"/>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C934" t="n">
+        <v>165.09</v>
+      </c>
+      <c r="D934" t="n">
+        <v>165.39</v>
+      </c>
+      <c r="E934" t="n">
+        <v>164.03</v>
+      </c>
+      <c r="F934" t="n">
+        <v>165.23</v>
+      </c>
+      <c r="G934" t="n">
+        <v>41516217</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr"/>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C935" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="D935" t="n">
+        <v>167.41</v>
+      </c>
+      <c r="E935" t="n">
+        <v>165.65</v>
+      </c>
+      <c r="F935" t="n">
+        <v>166.47</v>
+      </c>
+      <c r="G935" t="n">
+        <v>49923008</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr"/>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C936" t="n">
+        <v>165.8</v>
+      </c>
+      <c r="D936" t="n">
+        <v>168.16</v>
+      </c>
+      <c r="E936" t="n">
+        <v>165.54</v>
+      </c>
+      <c r="F936" t="n">
+        <v>167.63</v>
+      </c>
+      <c r="G936" t="n">
+        <v>47720166</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr"/>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C937" t="n">
+        <v>166.09</v>
+      </c>
+      <c r="D937" t="n">
+        <v>167.87</v>
+      </c>
+      <c r="E937" t="n">
+        <v>165.56</v>
+      </c>
+      <c r="F937" t="n">
+        <v>166.65</v>
+      </c>
+      <c r="G937" t="n">
+        <v>52293218</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>2023-03-27 09:30:00</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C938" t="n">
+        <v>159.94</v>
+      </c>
+      <c r="D938" t="n">
+        <v>160.77</v>
+      </c>
+      <c r="E938" t="n">
+        <v>157.87</v>
+      </c>
+      <c r="F938" t="n">
+        <v>158.28</v>
+      </c>
+      <c r="G938" t="n">
+        <v>52390266</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>2023-03-28 09:30:00</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C939" t="n">
+        <v>157.97</v>
+      </c>
+      <c r="D939" t="n">
+        <v>158.49</v>
+      </c>
+      <c r="E939" t="n">
+        <v>155.98</v>
+      </c>
+      <c r="F939" t="n">
+        <v>157.65</v>
+      </c>
+      <c r="G939" t="n">
+        <v>45992152</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>2023-03-29 09:30:00</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C940" t="n">
+        <v>159.37</v>
+      </c>
+      <c r="D940" t="n">
+        <v>161.05</v>
+      </c>
+      <c r="E940" t="n">
+        <v>159.35</v>
+      </c>
+      <c r="F940" t="n">
+        <v>160.77</v>
+      </c>
+      <c r="G940" t="n">
+        <v>51305691</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>2023-03-30 09:30:00</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C941" t="n">
+        <v>161.53</v>
+      </c>
+      <c r="D941" t="n">
+        <v>162.47</v>
+      </c>
+      <c r="E941" t="n">
+        <v>161.271</v>
+      </c>
+      <c r="F941" t="n">
+        <v>162.36</v>
+      </c>
+      <c r="G941" t="n">
+        <v>49501689</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>2023-03-31 09:30:00</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C942" t="n">
+        <v>162.44</v>
+      </c>
+      <c r="D942" t="n">
+        <v>165</v>
+      </c>
+      <c r="E942" t="n">
+        <v>161.91</v>
+      </c>
+      <c r="F942" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="G942" t="n">
+        <v>68749792</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>2023-04-03 09:30:00</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C943" t="n">
+        <v>164.27</v>
+      </c>
+      <c r="D943" t="n">
+        <v>166.29</v>
+      </c>
+      <c r="E943" t="n">
+        <v>164.22</v>
+      </c>
+      <c r="F943" t="n">
+        <v>166.17</v>
+      </c>
+      <c r="G943" t="n">
+        <v>56976187</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>2023-04-04 09:30:00</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C944" t="n">
+        <v>166.595</v>
+      </c>
+      <c r="D944" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="E944" t="n">
+        <v>165.11</v>
+      </c>
+      <c r="F944" t="n">
+        <v>165.63</v>
+      </c>
+      <c r="G944" t="n">
+        <v>46278295</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>2023-04-05 09:30:00</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C945" t="n">
+        <v>164.74</v>
+      </c>
+      <c r="D945" t="n">
+        <v>165.05</v>
+      </c>
+      <c r="E945" t="n">
+        <v>161.8</v>
+      </c>
+      <c r="F945" t="n">
+        <v>163.76</v>
+      </c>
+      <c r="G945" t="n">
+        <v>51511744</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>2023-04-06 09:30:00</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C946" t="n">
+        <v>162.43</v>
+      </c>
+      <c r="D946" t="n">
+        <v>164.9584</v>
+      </c>
+      <c r="E946" t="n">
+        <v>162</v>
+      </c>
+      <c r="F946" t="n">
+        <v>164.66</v>
+      </c>
+      <c r="G946" t="n">
+        <v>45390123</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>2023-04-10 09:30:00</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C947" t="n">
+        <v>161.42</v>
+      </c>
+      <c r="D947" t="n">
+        <v>162.03</v>
+      </c>
+      <c r="E947" t="n">
+        <v>160.08</v>
+      </c>
+      <c r="F947" t="n">
+        <v>162.03</v>
+      </c>
+      <c r="G947" t="n">
+        <v>47716882</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>2023-04-11 09:30:00</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C948" t="n">
+        <v>162.35</v>
+      </c>
+      <c r="D948" t="n">
+        <v>162.36</v>
+      </c>
+      <c r="E948" t="n">
+        <v>160.51</v>
+      </c>
+      <c r="F948" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="G948" t="n">
+        <v>47644217</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>2023-04-12 09:30:00</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C949" t="n">
+        <v>161.22</v>
+      </c>
+      <c r="D949" t="n">
+        <v>162.06</v>
+      </c>
+      <c r="E949" t="n">
+        <v>159.78</v>
+      </c>
+      <c r="F949" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="G949" t="n">
+        <v>50133062</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>2023-04-13 09:30:00</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C950" t="n">
+        <v>161.63</v>
+      </c>
+      <c r="D950" t="n">
+        <v>165.8</v>
+      </c>
+      <c r="E950" t="n">
+        <v>161.42</v>
+      </c>
+      <c r="F950" t="n">
+        <v>165.56</v>
+      </c>
+      <c r="G950" t="n">
+        <v>68445649</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>2023-04-14 09:30:00</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C951" t="n">
+        <v>164.59</v>
+      </c>
+      <c r="D951" t="n">
+        <v>166.32</v>
+      </c>
+      <c r="E951" t="n">
+        <v>163.82</v>
+      </c>
+      <c r="F951" t="n">
+        <v>165.21</v>
+      </c>
+      <c r="G951" t="n">
+        <v>49386480</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>2023-04-17 09:30:00</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C952" t="n">
+        <v>165.09</v>
+      </c>
+      <c r="D952" t="n">
+        <v>165.39</v>
+      </c>
+      <c r="E952" t="n">
+        <v>164.03</v>
+      </c>
+      <c r="F952" t="n">
+        <v>165.23</v>
+      </c>
+      <c r="G952" t="n">
+        <v>41516217</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>2023-04-18 09:30:00</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C953" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="D953" t="n">
+        <v>167.41</v>
+      </c>
+      <c r="E953" t="n">
+        <v>165.65</v>
+      </c>
+      <c r="F953" t="n">
+        <v>166.47</v>
+      </c>
+      <c r="G953" t="n">
+        <v>49923008</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>2023-04-19 09:30:00</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C954" t="n">
+        <v>165.8</v>
+      </c>
+      <c r="D954" t="n">
+        <v>168.16</v>
+      </c>
+      <c r="E954" t="n">
+        <v>165.54</v>
+      </c>
+      <c r="F954" t="n">
+        <v>167.63</v>
+      </c>
+      <c r="G954" t="n">
+        <v>47720166</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>2023-04-20 09:30:00</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>NASDAQ:AAPL</t>
+        </is>
+      </c>
+      <c r="C955" t="n">
+        <v>166.09</v>
+      </c>
+      <c r="D955" t="n">
+        <v>167.87</v>
+      </c>
+      <c r="E955" t="n">
+        <v>165.56</v>
+      </c>
+      <c r="F955" t="n">
+        <v>166.65</v>
+      </c>
+      <c r="G955" t="n">
+        <v>52293218</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>2023-03-27 09:30:00</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C956" t="n">
+        <v>99.06999999999999</v>
+      </c>
+      <c r="D956" t="n">
+        <v>99.34</v>
+      </c>
+      <c r="E956" t="n">
+        <v>97.08</v>
+      </c>
+      <c r="F956" t="n">
+        <v>98.04000000000001</v>
+      </c>
+      <c r="G956" t="n">
+        <v>46721296</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>2023-03-28 09:30:00</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C957" t="n">
+        <v>98.11</v>
+      </c>
+      <c r="D957" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="E957" t="n">
+        <v>96.29000000000001</v>
+      </c>
+      <c r="F957" t="n">
+        <v>97.23999999999999</v>
+      </c>
+      <c r="G957" t="n">
+        <v>38720050</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>2023-03-29 09:30:00</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C958" t="n">
+        <v>98.69</v>
+      </c>
+      <c r="D958" t="n">
+        <v>100.4218</v>
+      </c>
+      <c r="E958" t="n">
+        <v>98.56</v>
+      </c>
+      <c r="F958" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="G958" t="n">
+        <v>49783279</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>2023-03-30 09:30:00</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C959" t="n">
+        <v>101.55</v>
+      </c>
+      <c r="D959" t="n">
+        <v>103.04</v>
+      </c>
+      <c r="E959" t="n">
+        <v>101.01</v>
+      </c>
+      <c r="F959" t="n">
+        <v>102</v>
+      </c>
+      <c r="G959" t="n">
+        <v>53633398</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>2023-03-31 09:30:00</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C960" t="n">
+        <v>102.16</v>
+      </c>
+      <c r="D960" t="n">
+        <v>103.49</v>
+      </c>
+      <c r="E960" t="n">
+        <v>101.95</v>
+      </c>
+      <c r="F960" t="n">
+        <v>103.29</v>
+      </c>
+      <c r="G960" t="n">
+        <v>56750317</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>2023-04-03 09:30:00</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C961" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="D961" t="n">
+        <v>103.29</v>
+      </c>
+      <c r="E961" t="n">
+        <v>101.43</v>
+      </c>
+      <c r="F961" t="n">
+        <v>102.41</v>
+      </c>
+      <c r="G961" t="n">
+        <v>41135733</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>2023-04-04 09:30:00</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C962" t="n">
+        <v>102.75</v>
+      </c>
+      <c r="D962" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="E962" t="n">
+        <v>102.11</v>
+      </c>
+      <c r="F962" t="n">
+        <v>103.95</v>
+      </c>
+      <c r="G962" t="n">
+        <v>48662496</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>2023-04-05 09:30:00</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C963" t="n">
+        <v>103.91</v>
+      </c>
+      <c r="D963" t="n">
+        <v>103.91</v>
+      </c>
+      <c r="E963" t="n">
+        <v>100.7506</v>
+      </c>
+      <c r="F963" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="G963" t="n">
+        <v>45175393</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>2023-04-06 09:30:00</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C964" t="n">
+        <v>100.75</v>
+      </c>
+      <c r="D964" t="n">
+        <v>102.3817</v>
+      </c>
+      <c r="E964" t="n">
+        <v>99.8008</v>
+      </c>
+      <c r="F964" t="n">
+        <v>102.06</v>
+      </c>
+      <c r="G964" t="n">
+        <v>43808020</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>2023-04-10 09:30:00</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C965" t="n">
+        <v>100.96</v>
+      </c>
+      <c r="D965" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="E965" t="n">
+        <v>99.56999999999999</v>
+      </c>
+      <c r="F965" t="n">
+        <v>102.17</v>
+      </c>
+      <c r="G965" t="n">
+        <v>37261185</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>2023-04-11 09:30:00</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C966" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="D966" t="n">
+        <v>101</v>
+      </c>
+      <c r="E966" t="n">
+        <v>99.01000000000001</v>
+      </c>
+      <c r="F966" t="n">
+        <v>99.92</v>
+      </c>
+      <c r="G966" t="n">
+        <v>60417847</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>2023-04-12 09:30:00</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C967" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="D967" t="n">
+        <v>100.51</v>
+      </c>
+      <c r="E967" t="n">
+        <v>97.705</v>
+      </c>
+      <c r="F967" t="n">
+        <v>97.83</v>
+      </c>
+      <c r="G967" t="n">
+        <v>56735007</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>2023-04-13 09:30:00</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C968" t="n">
+        <v>98.95</v>
+      </c>
+      <c r="D968" t="n">
+        <v>102.57</v>
+      </c>
+      <c r="E968" t="n">
+        <v>98.70999999999999</v>
+      </c>
+      <c r="F968" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="G968" t="n">
+        <v>67925138</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>2023-04-14 09:30:00</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C969" t="n">
+        <v>102.07</v>
+      </c>
+      <c r="D969" t="n">
+        <v>103.2013</v>
+      </c>
+      <c r="E969" t="n">
+        <v>101.11</v>
+      </c>
+      <c r="F969" t="n">
+        <v>102.51</v>
+      </c>
+      <c r="G969" t="n">
+        <v>51450522</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>2023-04-17 09:30:00</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C970" t="n">
+        <v>103.16</v>
+      </c>
+      <c r="D970" t="n">
+        <v>103.73</v>
+      </c>
+      <c r="E970" t="n">
+        <v>101.59</v>
+      </c>
+      <c r="F970" t="n">
+        <v>102.74</v>
+      </c>
+      <c r="G970" t="n">
+        <v>39919457</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>2023-04-18 09:30:00</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C971" t="n">
+        <v>103.95</v>
+      </c>
+      <c r="D971" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="E971" t="n">
+        <v>101.52</v>
+      </c>
+      <c r="F971" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="G971" t="n">
+        <v>39790518</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>2023-04-19 09:30:00</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C972" t="n">
+        <v>101.58</v>
+      </c>
+      <c r="D972" t="n">
+        <v>105.12</v>
+      </c>
+      <c r="E972" t="n">
+        <v>101.39</v>
+      </c>
+      <c r="F972" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="G972" t="n">
+        <v>58398890</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>2023-04-20 09:30:00</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>NASDAQ:AMZN</t>
+        </is>
+      </c>
+      <c r="C973" t="n">
+        <v>103.53</v>
+      </c>
+      <c r="D973" t="n">
+        <v>105.25</v>
+      </c>
+      <c r="E973" t="n">
+        <v>103.21</v>
+      </c>
+      <c r="F973" t="n">
+        <v>103.81</v>
+      </c>
+      <c r="G973" t="n">
+        <v>57592589</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>2023-03-27 09:30:00</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C974" t="n">
+        <v>104.615</v>
+      </c>
+      <c r="D974" t="n">
+        <v>104.76</v>
+      </c>
+      <c r="E974" t="n">
+        <v>101.9273</v>
+      </c>
+      <c r="F974" t="n">
+        <v>102.46</v>
+      </c>
+      <c r="G974" t="n">
+        <v>31120864</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>2023-03-28 09:30:00</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C975" t="n">
+        <v>102.44</v>
+      </c>
+      <c r="D975" t="n">
+        <v>102.45</v>
+      </c>
+      <c r="E975" t="n">
+        <v>99.73999999999999</v>
+      </c>
+      <c r="F975" t="n">
+        <v>101.03</v>
+      </c>
+      <c r="G975" t="n">
+        <v>32057865</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>2023-03-29 09:30:00</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C976" t="n">
+        <v>102.28</v>
+      </c>
+      <c r="D976" t="n">
+        <v>102.49</v>
+      </c>
+      <c r="E976" t="n">
+        <v>100.65</v>
+      </c>
+      <c r="F976" t="n">
+        <v>101.39</v>
+      </c>
+      <c r="G976" t="n">
+        <v>28779572</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>2023-03-30 09:30:00</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C977" t="n">
+        <v>100.91</v>
+      </c>
+      <c r="D977" t="n">
+        <v>101.155</v>
+      </c>
+      <c r="E977" t="n">
+        <v>99.78</v>
+      </c>
+      <c r="F977" t="n">
+        <v>100.89</v>
+      </c>
+      <c r="G977" t="n">
+        <v>33086183</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>2023-03-31 09:30:00</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C978" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="D978" t="n">
+        <v>103.89</v>
+      </c>
+      <c r="E978" t="n">
+        <v>101.04</v>
+      </c>
+      <c r="F978" t="n">
+        <v>103.73</v>
+      </c>
+      <c r="G978" t="n">
+        <v>36863369</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>2023-04-03 09:30:00</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C979" t="n">
+        <v>102.39</v>
+      </c>
+      <c r="D979" t="n">
+        <v>104.53</v>
+      </c>
+      <c r="E979" t="n">
+        <v>101.93</v>
+      </c>
+      <c r="F979" t="n">
+        <v>104.36</v>
+      </c>
+      <c r="G979" t="n">
+        <v>25035399</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>2023-04-04 09:30:00</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C980" t="n">
+        <v>104.33</v>
+      </c>
+      <c r="D980" t="n">
+        <v>105.58</v>
+      </c>
+      <c r="E980" t="n">
+        <v>104.04</v>
+      </c>
+      <c r="F980" t="n">
+        <v>104.72</v>
+      </c>
+      <c r="G980" t="n">
+        <v>24420079</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>2023-04-05 09:30:00</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C981" t="n">
+        <v>105.78</v>
+      </c>
+      <c r="D981" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="E981" t="n">
+        <v>103.66</v>
+      </c>
+      <c r="F981" t="n">
+        <v>104.47</v>
+      </c>
+      <c r="G981" t="n">
+        <v>28290503</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>2023-04-06 09:30:00</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C982" t="n">
+        <v>105.26</v>
+      </c>
+      <c r="D982" t="n">
+        <v>109.17</v>
+      </c>
+      <c r="E982" t="n">
+        <v>104.33</v>
+      </c>
+      <c r="F982" t="n">
+        <v>108.42</v>
+      </c>
+      <c r="G982" t="n">
+        <v>48711480</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>2023-04-10 09:30:00</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C983" t="n">
+        <v>106.98</v>
+      </c>
+      <c r="D983" t="n">
+        <v>107.59</v>
+      </c>
+      <c r="E983" t="n">
+        <v>105.12</v>
+      </c>
+      <c r="F983" t="n">
+        <v>106.44</v>
+      </c>
+      <c r="G983" t="n">
+        <v>27067355</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>2023-04-11 09:30:00</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C984" t="n">
+        <v>106.55</v>
+      </c>
+      <c r="D984" t="n">
+        <v>106.73</v>
+      </c>
+      <c r="E984" t="n">
+        <v>104.68</v>
+      </c>
+      <c r="F984" t="n">
+        <v>105.35</v>
+      </c>
+      <c r="G984" t="n">
+        <v>26311803</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>2023-04-12 09:30:00</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C985" t="n">
+        <v>106.58</v>
+      </c>
+      <c r="D985" t="n">
+        <v>106.75</v>
+      </c>
+      <c r="E985" t="n">
+        <v>104.34</v>
+      </c>
+      <c r="F985" t="n">
+        <v>104.64</v>
+      </c>
+      <c r="G985" t="n">
+        <v>24370274</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>2023-04-13 09:30:00</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C986" t="n">
+        <v>105.84</v>
+      </c>
+      <c r="D986" t="n">
+        <v>107.49</v>
+      </c>
+      <c r="E986" t="n">
+        <v>105.84</v>
+      </c>
+      <c r="F986" t="n">
+        <v>107.43</v>
+      </c>
+      <c r="G986" t="n">
+        <v>24843579</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>2023-04-14 09:30:00</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C987" t="n">
+        <v>106.89</v>
+      </c>
+      <c r="D987" t="n">
+        <v>108.94</v>
+      </c>
+      <c r="E987" t="n">
+        <v>106.84</v>
+      </c>
+      <c r="F987" t="n">
+        <v>108.87</v>
+      </c>
+      <c r="G987" t="n">
+        <v>26578002</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>2023-04-17 09:30:00</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C988" t="n">
+        <v>104.658</v>
+      </c>
+      <c r="D988" t="n">
+        <v>106.16</v>
+      </c>
+      <c r="E988" t="n">
+        <v>104.52</v>
+      </c>
+      <c r="F988" t="n">
+        <v>105.97</v>
+      </c>
+      <c r="G988" t="n">
+        <v>37571218</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>2023-04-18 09:30:00</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C989" t="n">
+        <v>106.49</v>
+      </c>
+      <c r="D989" t="n">
+        <v>106.54</v>
+      </c>
+      <c r="E989" t="n">
+        <v>104.07</v>
+      </c>
+      <c r="F989" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="G989" t="n">
+        <v>26596445</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>2023-04-19 09:30:00</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C990" t="n">
+        <v>103.58</v>
+      </c>
+      <c r="D990" t="n">
+        <v>104.98</v>
+      </c>
+      <c r="E990" t="n">
+        <v>103.07</v>
+      </c>
+      <c r="F990" t="n">
+        <v>104.18</v>
+      </c>
+      <c r="G990" t="n">
+        <v>20905684</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>2023-04-20 09:30:00</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>NASDAQ:GOOGL</t>
+        </is>
+      </c>
+      <c r="C991" t="n">
+        <v>103.91</v>
+      </c>
+      <c r="D991" t="n">
+        <v>106.25</v>
+      </c>
+      <c r="E991" t="n">
+        <v>103.8684</v>
+      </c>
+      <c r="F991" t="n">
+        <v>105.29</v>
+      </c>
+      <c r="G991" t="n">
+        <v>27716989</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>2023-03-27 09:30:00</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C992" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="D992" t="n">
+        <v>281.4589</v>
+      </c>
+      <c r="E992" t="n">
+        <v>275.52</v>
+      </c>
+      <c r="F992" t="n">
+        <v>276.38</v>
+      </c>
+      <c r="G992" t="n">
+        <v>26840212</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>2023-03-28 09:30:00</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C993" t="n">
+        <v>275.79</v>
+      </c>
+      <c r="D993" t="n">
+        <v>276.14</v>
+      </c>
+      <c r="E993" t="n">
+        <v>272.0451</v>
+      </c>
+      <c r="F993" t="n">
+        <v>275.23</v>
+      </c>
+      <c r="G993" t="n">
+        <v>21878647</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>2023-03-29 09:30:00</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C994" t="n">
+        <v>278.96</v>
+      </c>
+      <c r="D994" t="n">
+        <v>281.1398</v>
+      </c>
+      <c r="E994" t="n">
+        <v>278.41</v>
+      </c>
+      <c r="F994" t="n">
+        <v>280.51</v>
+      </c>
+      <c r="G994" t="n">
+        <v>25087032</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>2023-03-30 09:30:00</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C995" t="n">
+        <v>284.23</v>
+      </c>
+      <c r="D995" t="n">
+        <v>284.46</v>
+      </c>
+      <c r="E995" t="n">
+        <v>281.48</v>
+      </c>
+      <c r="F995" t="n">
+        <v>284.05</v>
+      </c>
+      <c r="G995" t="n">
+        <v>25053410</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>2023-03-31 09:30:00</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C996" t="n">
+        <v>283.73</v>
+      </c>
+      <c r="D996" t="n">
+        <v>289.27</v>
+      </c>
+      <c r="E996" t="n">
+        <v>283</v>
+      </c>
+      <c r="F996" t="n">
+        <v>288.3</v>
+      </c>
+      <c r="G996" t="n">
+        <v>32765976</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>2023-04-03 09:30:00</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C997" t="n">
+        <v>286.52</v>
+      </c>
+      <c r="D997" t="n">
+        <v>288.27</v>
+      </c>
+      <c r="E997" t="n">
+        <v>283.95</v>
+      </c>
+      <c r="F997" t="n">
+        <v>287.23</v>
+      </c>
+      <c r="G997" t="n">
+        <v>24883342</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>2023-04-04 09:30:00</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C998" t="n">
+        <v>287.23</v>
+      </c>
+      <c r="D998" t="n">
+        <v>290.4499</v>
+      </c>
+      <c r="E998" t="n">
+        <v>285.67</v>
+      </c>
+      <c r="F998" t="n">
+        <v>287.18</v>
+      </c>
+      <c r="G998" t="n">
+        <v>25824299</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>2023-04-05 09:30:00</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C999" t="n">
+        <v>285.85</v>
+      </c>
+      <c r="D999" t="n">
+        <v>287.15</v>
+      </c>
+      <c r="E999" t="n">
+        <v>282.92</v>
+      </c>
+      <c r="F999" t="n">
+        <v>284.34</v>
+      </c>
+      <c r="G999" t="n">
+        <v>22064770</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>2023-04-06 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C1000" t="n">
+        <v>283.21</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>292.08</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>282.03</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>291.6</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>29770334</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>2023-04-10 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C1001" t="n">
+        <v>289.208</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>284.71</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>289.39</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>23102994</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>2023-04-11 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C1002" t="n">
+        <v>285.75</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>285.98</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>281.64</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>282.83</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>27276589</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>2023-04-12 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C1003" t="n">
+        <v>284.79</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>287.01</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>281.96</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>283.49</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>27403432</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>2023-04-13 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C1004" t="n">
+        <v>283.59</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>289.9</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>283.17</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>289.84</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>24222678</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>2023-04-14 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C1005" t="n">
+        <v>287</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>288.48</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>283.69</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>286.14</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>20987917</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>2023-04-17 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C1006" t="n">
+        <v>289.93</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>291.6</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>286.16</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>23836223</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>2023-04-18 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C1007" t="n">
+        <v>291.57</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>291.755</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>287.01</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>288.37</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>20161845</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>2023-04-19 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C1008" t="n">
+        <v>285.99</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>289.05</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>284.54</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>288.45</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>17150271</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>2023-04-20 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>NASDAQ:MSFT</t>
+        </is>
+      </c>
+      <c r="C1009" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>289.03</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>285.08</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>286.11</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>23201771</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>2023-03-27 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1010" t="n">
+        <v>204.81</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>205.86</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>201.36</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>202.84</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>18527184</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>2023-03-28 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1011" t="n">
+        <v>200.15</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>201.03</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>197.9</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>200.68</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>19127295</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>2023-03-29 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1012" t="n">
+        <v>203.56</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>205.72</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>202.5355</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>205.35</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>18851137</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>2023-03-30 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1013" t="n">
+        <v>203.38</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>208.09</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>202.82</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>207.84</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>22608303</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>2023-03-31 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1014" t="n">
+        <v>207.24</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>212.17</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>206.77</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>211.94</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>25440273</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>2023-04-03 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1015" t="n">
+        <v>208.84</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>213.4861</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>208.2</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>213.07</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>17924613</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>2023-04-04 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1016" t="n">
+        <v>213.39</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>216.24</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>212.54</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>214.72</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>21026367</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>2023-04-05 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1017" t="n">
+        <v>214.15</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>215.19</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>209.94</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>211.48</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>19396630</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>2023-04-06 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1018" t="n">
+        <v>209.25</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>216.94</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>208.65</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>216.1</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>26104411</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>2023-04-10 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1019" t="n">
+        <v>214.71</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>215.66</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>210.66</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>214.75</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>16106074</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>2023-04-11 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1020" t="n">
+        <v>215.48</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>216.02</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>213.41</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>213.85</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>16710101</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>2023-04-12 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1021" t="n">
+        <v>214.835</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>216.84</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>212.584</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>214</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>18972172</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>2023-04-13 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1022" t="n">
+        <v>215.73</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>221.15</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>215.69</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>220.35</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>23310357</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>2023-04-14 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1023" t="n">
+        <v>217.88</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>222.11</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>217.55</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>221.49</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>21591207</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>2023-04-17 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1024" t="n">
+        <v>219.79</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>220.979</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>217.13</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>218.86</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>15481874</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>2023-04-18 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1025" t="n">
+        <v>219.91</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>220.44</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>216.21</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>217.89</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>12280984</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>2023-04-19 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1026" t="n">
+        <v>213.472</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>217.33</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>212.93</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>15898078</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>2023-04-20 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>NASDAQ:FB</t>
+        </is>
+      </c>
+      <c r="C1027" t="n">
+        <v>213.48</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>216.75</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>212.77</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>213.07</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>16450878</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>2023-03-27 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1028" t="n">
+        <v>194.415</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>197.39</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>189.94</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>191.81</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>120851587</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>2023-03-28 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1029" t="n">
+        <v>192</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>192.35</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>185.43</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>189.19</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>98654635</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>2023-03-29 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1030" t="n">
+        <v>193.13</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>195.29</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>189.44</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>193.88</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>123660026</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>2023-03-30 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1031" t="n">
+        <v>195.58</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>197.33</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>194.42</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>195.28</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>110252238</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>2023-03-31 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1032" t="n">
+        <v>197.53</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>207.79</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>197.2</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>207.46</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>170222118</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>2023-04-03 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1033" t="n">
+        <v>199.91</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>202.6897</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>194.77</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>169545900</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>2023-04-04 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1034" t="n">
+        <v>197.32</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>198.7446</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>190.32</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>192.58</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>126463845</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>2023-04-05 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1035" t="n">
+        <v>190.515</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>190.68</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>183.76</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>185.52</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>133882493</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>2023-04-06 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1036" t="n">
+        <v>183.08</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>186.39</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>179.74</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>185.06</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>123857932</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>2023-04-10 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1037" t="n">
+        <v>179.94</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>185.1</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>176.11</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>184.51</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>142154637</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>2023-04-11 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1038" t="n">
+        <v>186.69</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>189.19</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>185.6475</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>186.79</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>115770892</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>2023-04-12 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1039" t="n">
+        <v>190.74</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>191.5846</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>180.31</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>180.54</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>150256278</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>2023-04-13 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1040" t="n">
+        <v>182.955</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>180.94</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>112932985</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>2023-04-14 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1041" t="n">
+        <v>183.95</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>186.28</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>182.01</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>185</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>96438664</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>2023-04-17 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1042" t="n">
+        <v>186.32</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>189.69</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>182.69</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>187.04</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>116662189</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>2023-04-18 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1043" t="n">
+        <v>187.15</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>187.69</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>183.5775</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>184.31</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>92067016</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>2023-04-19 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1044" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>177.65</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>180.59</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>125732687</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>2023-04-20 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>NASDAQ:TSLA</t>
+        </is>
+      </c>
+      <c r="C1045" t="n">
+        <v>166.165</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>169.7</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>160.56</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>162.99</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>209928490</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>2023-03-27 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1046" t="n">
+        <v>268.37</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>270</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>263.65</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>265.31</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>36102574</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>2023-03-28 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1047" t="n">
+        <v>264.47</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>265.13</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>258.5</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>264.1</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>35610378</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>2023-03-29 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1048" t="n">
+        <v>268.25</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>270.78</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>265.97</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>269.84</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>39369387</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>2023-03-30 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1049" t="n">
+        <v>272.29</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>274.99</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>271.02</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>273.83</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>36451574</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>2023-03-31 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1050" t="n">
+        <v>271.4</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>278.3431</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>271.05</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>277.77</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>43393277</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>2023-04-03 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1051" t="n">
+        <v>275.09</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>273.36</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>279.65</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>39871560</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>2023-04-04 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1052" t="n">
+        <v>279.66</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>273.07</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>274.53</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>36859153</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>2023-04-05 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1053" t="n">
+        <v>268.29</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>269.98</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>263.95</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>268.81</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>51501474</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>2023-04-06 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1054" t="n">
+        <v>265.84</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>270.8</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>264.27</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>270.37</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>39765434</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>2023-04-10 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1055" t="n">
+        <v>268.23</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>276.2099</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>266.69</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>275.79</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>39527855</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>2023-04-11 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1056" t="n">
+        <v>277.235</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>277.9</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>271.26</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>271.69</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>31437817</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>2023-04-12 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1057" t="n">
+        <v>273.7</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>274.6799</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>264.475</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>264.95</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>44625895</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>2023-04-13 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1058" t="n">
+        <v>267.34</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>268.869</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>263.29</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>264.63</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>35361528</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>2023-04-14 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1059" t="n">
+        <v>265.04</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>268.83</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>262.2</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>267.58</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>39566013</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>2023-04-17 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1060" t="n">
+        <v>265.655</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>270.06</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>264.3318</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>270.02</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>32147130</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>2023-04-18 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1061" t="n">
+        <v>275.335</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>281.1</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>273.57</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>276.67</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>60481154</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>2023-04-19 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1062" t="n">
+        <v>273.61</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>272.32</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>279.31</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>35866041</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>2023-04-20 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>NASDAQ:NVDA</t>
+        </is>
+      </c>
+      <c r="C1063" t="n">
+        <v>276.71</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>270</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>271.04</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>42671727</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>2023-03-27 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1064" t="n">
+        <v>74.815</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>75.17</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>73.18000000000001</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>11908872</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>2023-03-28 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1065" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>73.59</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>9252414</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>2023-03-29 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1066" t="n">
+        <v>73.20999999999999</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>74.18000000000001</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>8746697</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>2023-03-30 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1067" t="n">
+        <v>74.93000000000001</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>75.18000000000001</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>73.90009999999999</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>74.39</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>8429763</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>2023-03-31 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1068" t="n">
+        <v>74.51000000000001</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>76.03</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>74.12</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>75.94</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>8378585</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>2023-04-03 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1069" t="n">
+        <v>75.625</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>75.92</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>74.705</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>75.29000000000001</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>8911724</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>2023-04-04 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1070" t="n">
+        <v>75.45999999999999</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>75.69</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>74.73</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>75.26000000000001</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>8949082</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>2023-04-05 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1071" t="n">
+        <v>75.11</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>75.11</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>73.11499999999999</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>73.61</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>10812732</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>2023-04-06 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1072" t="n">
+        <v>73.27</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>75</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>74.95999999999999</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>10524544</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>2023-04-10 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1073" t="n">
+        <v>74.45999999999999</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>74.855</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>73.45999999999999</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>74.52</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>7591754</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>2023-04-11 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1074" t="n">
+        <v>76.03</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>76.44</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>73.20999999999999</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>73.58</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>14190881</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>2023-04-12 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1075" t="n">
+        <v>73.94</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>73.34999999999999</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>10422324</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>2023-04-13 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1076" t="n">
+        <v>73.70999999999999</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>75.56</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>73.56</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>75.52</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>8724140</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>2023-04-14 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1077" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>76.735</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>75.15000000000001</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>76.53</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>8902653</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>2023-04-17 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1078" t="n">
+        <v>76.83499999999999</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>77.95</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>76.55</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>77.33</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>9717635</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>2023-04-18 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1079" t="n">
+        <v>77.70999999999999</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>77.94</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>76.2101</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>76.42</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>7558905</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>2023-04-19 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1080" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>75.94</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>75.31999999999999</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>8888295</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>2023-04-20 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>NASDAQ:PYPL</t>
+        </is>
+      </c>
+      <c r="C1081" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>74.97</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>73.47</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>73.58</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>8840273</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>2023-03-27 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1082" t="n">
+        <v>327.55</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>336.44</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>324.41</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>327.66</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>8625763</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>2023-03-28 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1083" t="n">
+        <v>326.06</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>333.32</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>321.28</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>323.52</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>6489388</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>2023-03-29 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1084" t="n">
+        <v>326.29</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>332.85</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>325.73</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>332.03</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>6287336</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>2023-03-30 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1085" t="n">
+        <v>340.2699</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>343.29</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>335.3</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>338.43</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>7131468</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>2023-03-31 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1086" t="n">
+        <v>340.05</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>345.84</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>337.2001</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>345.48</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>5610161</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>2023-04-03 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1087" t="n">
+        <v>341.83</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>348.58</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>340.4001</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>348.28</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>4413650</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>2023-04-04 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1088" t="n">
+        <v>348.49</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>349.8</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>343.95</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>346.75</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>3298072</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>2023-04-05 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1089" t="n">
+        <v>345.3</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>345.43</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>336.2526</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>342.35</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>4205545</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>2023-04-06 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1090" t="n">
+        <v>339.34</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>340.48</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>332.63</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>339.33</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>4660542</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>2023-04-10 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1091" t="n">
+        <v>335.27</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>339.88</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>333.36</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>338.99</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>2657898</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>2023-04-11 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1092" t="n">
+        <v>343.45</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>347.14</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>337.635</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>338.21</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>4044778</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>2023-04-12 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1093" t="n">
+        <v>340.81</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>342.8</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>330.04</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>331.03</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>3965440</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>2023-04-13 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1094" t="n">
+        <v>339.99</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>346.43</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>338.75</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>346.19</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>7406437</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>2023-04-14 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1095" t="n">
+        <v>342.94</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>344.853</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>336.41</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>338.63</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>5350508</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>2023-04-17 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1096" t="n">
+        <v>338</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>338.39</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>327.5</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>332.72</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>6136047</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>2023-04-18 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1097" t="n">
+        <v>335</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>337.19</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>330.5</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>333.7</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>17944496</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>2023-04-19 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1098" t="n">
+        <v>324.21</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>325.75</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>316.1</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>323.12</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>22128267</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>2023-04-20 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>NASDAQ:NFLX</t>
+        </is>
+      </c>
+      <c r="C1099" t="n">
+        <v>320.39</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>331.4298</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>318.33</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>325.35</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>9940432</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>2023-03-27 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1100" t="n">
+        <v>29.37</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>29.73</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>29.08</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>29.18</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>34758156</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>2023-03-28 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1101" t="n">
+        <v>29.075</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>28.63</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>37407874</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>2023-03-29 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1102" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>29.755</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>85556189</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>2023-03-30 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1103" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>32.58</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>31.81</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>32.09</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>70077598</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>2023-03-31 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1104" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>31.73</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>32.67</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>59764991</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>2023-04-03 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1105" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>33.56</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>32.54</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>57038344</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>2023-04-04 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1106" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>33.84</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>55714058</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>2023-04-05 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1107" t="n">
+        <v>32.795</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>32.99</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>32.335</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>32.83</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>39615735</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>2023-04-06 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1108" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>33</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>32.46</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>32.81</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>28551916</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>2023-04-10 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1109" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>32.76</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>32.52</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>30534439</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>2023-04-11 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1110" t="n">
+        <v>32.66</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>33.11</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>27059106</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>2023-04-12 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1111" t="n">
+        <v>32.77</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>32.89</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>31.96</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>37070786</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>2023-04-13 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1112" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>31.65</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>32.13</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>29722344</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>2023-04-14 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1113" t="n">
+        <v>32</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>32.235</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>24623633</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>2023-04-17 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1114" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>32.64</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>32.14</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>29601148</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>2023-04-18 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1115" t="n">
+        <v>32.43</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>32.46</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>31.83</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>26041380</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>2023-04-19 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1116" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>31.08</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>25746574</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>2023-04-20 09:30:00</t>
+        </is>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>NASDAQ:INTC</t>
+        </is>
+      </c>
+      <c r="C1117" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>30.71</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>30230050</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
